--- a/biology/Zoologie/Electrostrymon_angerona/Electrostrymon_angerona.xlsx
+++ b/biology/Zoologie/Electrostrymon_angerona/Electrostrymon_angerona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Electrostrymon angerona est une espèce de lépidoptères (papillons) de la famille des Lycaenidae, originaire des Petites Antilles.
 </t>
@@ -511,10 +523,12 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago d’Electrostrymon angerona est un petit papillon au dessus brun doré. 
-Le revers des ailes a un fond beige doré orné d'une ligne de traits postdiscaux blancs bordés intérieurement de brun, avec près de l'angle anal de l'aile postérieure deux taches brun-noir, une plage orange, et deux fines queues dont une longue[1].
+Le revers des ailes a un fond beige doré orné d'une ligne de traits postdiscaux blancs bordés intérieurement de brun, avec près de l'angle anal de l'aile postérieure deux taches brun-noir, une plage orange, et deux fines queues dont une longue.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Electrostrymon angerona est originaire des Petites Antilles, où elle est notamment présente à Saint-Barthélemy, à la Guadeloupe, à la Martinique, à Saint-Vincent, aux Grenadines et à la Grenade[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Electrostrymon angerona est originaire des Petites Antilles, où elle est notamment présente à Saint-Barthélemy, à la Guadeloupe, à la Martinique, à Saint-Vincent, aux Grenadines et à la Grenade,.
 </t>
         </is>
       </c>
@@ -600,10 +618,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce actuellement appelée Electrostrymon angerona a été décrite par les entomologistes britanniques Frederick DuCane Godman et Osbert Salvin en 1896, sous le nom initial de Thecla angerona[3].
-Un synonyme est Thecla burdi Kaye, 1923[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce actuellement appelée Electrostrymon angerona a été décrite par les entomologistes britanniques Frederick DuCane Godman et Osbert Salvin en 1896, sous le nom initial de Thecla angerona.
+Un synonyme est Thecla burdi Kaye, 1923.
 </t>
         </is>
       </c>
@@ -632,9 +652,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Electrostrymon angerona est appelée Angerona Hairstreak en anglais[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Electrostrymon angerona est appelée Angerona Hairstreak en anglais.
 </t>
         </is>
       </c>
@@ -663,9 +685,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France[4].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce n'a pas de statut de protection particulier en France.
 </t>
         </is>
       </c>
